--- a/TestData/PerformanceTestResults.xlsx
+++ b/TestData/PerformanceTestResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnC\Desktop\MEGASOFT\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohu\Desktop\MEGASOFT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D274625-2FB5-4F41-8C8D-3AB728FFB051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DDD032-5648-482B-A8C8-66EC46AA0FFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -754,362 +752,362 @@
   </cellStyleXfs>
   <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,6 +1431,24 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.3833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0332999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.68333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2449,7 +2465,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2961,6 +2977,21 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4666699999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3793,1860 +3824,1891 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" customWidth="1"/>
-    <col min="3" max="4" width="7.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="4" width="7.75" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="10" width="7.59765625" customWidth="1"/>
-    <col min="11" max="12" width="7.69921875" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" customWidth="1"/>
-    <col min="14" max="14" width="6.09765625" customWidth="1"/>
-    <col min="15" max="15" width="5.19921875" customWidth="1"/>
-    <col min="16" max="23" width="7.59765625" customWidth="1"/>
-    <col min="24" max="1025" width="12.59765625" customWidth="1"/>
+    <col min="6" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="12" width="7.75" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="6.125" customWidth="1"/>
+    <col min="15" max="15" width="5.25" customWidth="1"/>
+    <col min="16" max="23" width="7.625" customWidth="1"/>
+    <col min="24" max="1025" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="N2" s="15"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="N3" s="15"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="2">
         <v>1000</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="3">
         <v>10000</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="4">
         <v>100000</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="5">
         <v>1000</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="3">
         <v>10000</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="4">
         <v>100000</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="108"/>
+      <c r="M4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>8</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="23">
+      <c r="C5" s="9">
+        <v>10.3833</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="9">
         <v>11.83</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="26"/>
-      <c r="K5" s="27" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="K5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+    <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>8</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="19">
         <v>5</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37">
+      <c r="C6" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23">
         <f>$F$5</f>
         <v>11.83</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="K6" s="40">
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="K6" s="26">
         <v>1</v>
       </c>
-      <c r="L6" s="113">
+      <c r="L6" s="97">
         <v>5.8333000000000004</v>
       </c>
-      <c r="M6" s="114"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43"/>
+      <c r="M6" s="98">
+        <v>10.3833</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+    <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>8</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="19">
         <v>10</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37">
+      <c r="C7" s="20">
+        <v>1.75</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23">
         <f>$F$5</f>
         <v>11.83</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="K7" s="44">
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="K7" s="30">
         <v>2</v>
       </c>
-      <c r="L7" s="115">
+      <c r="L7" s="99">
         <v>3.0833300000000001</v>
       </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="46"/>
+      <c r="M7" s="100">
+        <v>5.75</v>
+      </c>
+      <c r="N7" s="32"/>
     </row>
-    <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+    <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>8</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="19">
         <v>20</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37">
+      <c r="C8" s="20">
+        <v>1.6333</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23">
         <f>$F$5</f>
         <v>11.83</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="K8" s="44">
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="K8" s="30">
         <v>3</v>
       </c>
-      <c r="L8" s="115">
+      <c r="L8" s="99">
         <v>2.65</v>
       </c>
-      <c r="M8" s="117"/>
-      <c r="N8" s="46"/>
+      <c r="M8" s="101">
+        <v>4.0332999999999997</v>
+      </c>
+      <c r="N8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+    <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="34">
         <v>50</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52">
+      <c r="C9" s="35">
+        <v>1.4666699999999999</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38">
         <f>$F$5</f>
         <v>11.83</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="K9" s="44">
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="K9" s="30">
         <v>4</v>
       </c>
-      <c r="L9" s="115">
+      <c r="L9" s="99">
         <v>2.35</v>
       </c>
-      <c r="M9" s="117"/>
-      <c r="N9" s="46"/>
+      <c r="M9" s="101">
+        <v>3.35</v>
+      </c>
+      <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+    <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41">
         <v>20</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="42">
         <v>1</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
-      <c r="K10" s="44">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="K10" s="30">
         <v>5</v>
       </c>
-      <c r="L10" s="115">
+      <c r="L10" s="99">
         <v>2.1166700000000001</v>
       </c>
-      <c r="M10" s="117"/>
-      <c r="N10" s="46"/>
+      <c r="M10" s="101">
+        <v>2.75</v>
+      </c>
+      <c r="N10" s="32"/>
     </row>
-    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>20</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="19">
         <v>5</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23">
         <f>$F$10</f>
         <v>0</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="K11" s="57">
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="K11" s="43">
         <v>8</v>
       </c>
-      <c r="L11" s="118">
+      <c r="L11" s="102">
         <v>1.98333</v>
       </c>
-      <c r="M11" s="119"/>
-      <c r="N11" s="59"/>
+      <c r="M11" s="103">
+        <v>1.68333</v>
+      </c>
+      <c r="N11" s="45"/>
     </row>
-    <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+    <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>20</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="19">
         <v>10</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23">
         <f>$F$10</f>
         <v>0</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+    <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>20</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="19">
         <v>50</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23">
         <f>$F$10</f>
         <v>0</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
+    <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46">
         <v>20</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="47">
         <v>100</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="37">
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="23">
         <f>$F$10</f>
         <v>0</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>40</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="70"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="56"/>
     </row>
-    <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+    <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>40</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="19">
         <v>5</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37">
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23">
         <f>$F$15</f>
         <v>0</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="K16" s="8" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="K16" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="20" t="s">
+      <c r="L16" s="108"/>
+      <c r="M16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46">
         <v>40</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="47">
         <v>10</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="37">
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="23">
         <f>$F$15</f>
         <v>0</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="K17" s="27" t="s">
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="K17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="57" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K18" s="40">
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="26">
         <v>1</v>
       </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
     </row>
-    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="K19" s="44">
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="K19" s="30">
         <v>2</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
     </row>
-    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9" t="s">
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="K20" s="44">
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="K20" s="30">
         <v>3</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="72">
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="114"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="58">
         <v>1000</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="59">
         <v>10000</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="60">
         <v>100000</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="61">
         <v>1000</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="59">
         <v>10000</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="60">
         <v>100000</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="30">
         <v>4</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="46"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>8</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="62">
         <v>1</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="77">
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="63">
         <v>7.97</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="80"/>
-      <c r="K22" s="44">
+      <c r="G22" s="64"/>
+      <c r="H22" s="66"/>
+      <c r="K22" s="30">
         <v>5</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
     </row>
-    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>8</v>
       </c>
-      <c r="B23" s="81">
+      <c r="B23" s="67">
         <v>5</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="K23" s="57">
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="K23" s="43">
         <v>8</v>
       </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
     </row>
-    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
         <v>8</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="67">
         <v>10</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
     </row>
-    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <v>8</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="67">
         <v>20</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
     </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33">
         <v>8</v>
       </c>
-      <c r="B26" s="88">
+      <c r="B26" s="74">
         <v>50</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
     </row>
-    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41">
         <v>20</v>
       </c>
-      <c r="B27" s="95">
+      <c r="B27" s="81">
         <v>1</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="80"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="66"/>
     </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
         <v>20</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="67">
         <v>5</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="87"/>
-      <c r="K28" s="8" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73"/>
+      <c r="K28" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="20" t="s">
+      <c r="L28" s="108"/>
+      <c r="M28" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
         <v>20</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="67">
         <v>10</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
-      <c r="K29" s="27" t="s">
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
+      <c r="K29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="14">
         <v>52</v>
       </c>
-      <c r="M29" s="71"/>
+      <c r="M29" s="57"/>
     </row>
-    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
         <v>20</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="67">
         <v>50</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="87"/>
-      <c r="K30" s="40">
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="K30" s="26">
         <v>1</v>
       </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
     </row>
-    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60">
+    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46">
         <v>20</v>
       </c>
-      <c r="B31" s="96">
+      <c r="B31" s="82">
         <v>100</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="102"/>
-      <c r="K31" s="44">
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
+      <c r="K31" s="30">
         <v>2</v>
       </c>
-      <c r="L31" s="45"/>
-      <c r="M31" s="46"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
     </row>
-    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <v>40</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="62">
         <v>1</v>
       </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="106"/>
-      <c r="K32" s="44">
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="92"/>
+      <c r="K32" s="30">
         <v>3</v>
       </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="46"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
     </row>
-    <row r="33" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+    <row r="33" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
         <v>40</v>
       </c>
-      <c r="B33" s="81">
+      <c r="B33" s="67">
         <v>5</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
-      <c r="K33" s="44">
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="73"/>
+      <c r="K33" s="30">
         <v>4</v>
       </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="46"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60">
+    <row r="34" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46">
         <v>40</v>
       </c>
-      <c r="B34" s="96">
+      <c r="B34" s="82">
         <v>10</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="102"/>
-      <c r="K34" s="44">
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88"/>
+      <c r="K34" s="30">
         <v>5</v>
       </c>
-      <c r="L34" s="45"/>
-      <c r="M34" s="46"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
     </row>
-    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K35" s="44">
+    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="30">
         <v>8</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="46"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
     </row>
-    <row r="36" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K36" s="44">
+    <row r="36" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="30">
         <v>10</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="46"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K37" s="44">
+    <row r="37" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="30">
         <v>20</v>
       </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="46"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="5" t="s">
+    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="K38" s="57">
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="K38" s="43">
         <v>50</v>
       </c>
-      <c r="L38" s="58"/>
-      <c r="M38" s="59"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="45"/>
     </row>
-    <row r="39" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
+    <row r="39" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
     </row>
-    <row r="40" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="27" t="s">
+    <row r="40" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="110"/>
+      <c r="D40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="107" t="s">
+      <c r="E40" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="107" t="s">
+      <c r="F40" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="106"/>
     </row>
-    <row r="41" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
+    <row r="41" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="K41" s="8" t="s">
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="K41" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="20" t="s">
+      <c r="L41" s="108"/>
+      <c r="M41" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="96"/>
-      <c r="K42" s="27" t="s">
+    <row r="42" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="107"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="82"/>
+      <c r="K42" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="28">
+      <c r="L42" s="14">
         <v>52</v>
       </c>
-      <c r="M42" s="71"/>
+      <c r="M42" s="57"/>
     </row>
-    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="5" t="s">
+    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="111" t="s">
+      <c r="D43" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="K43" s="40">
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="K43" s="26">
         <v>1</v>
       </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="42"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="28"/>
     </row>
-    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
-      <c r="D44" s="108" t="s">
+    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="107"/>
+      <c r="D44" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="110" t="s">
+      <c r="E44" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="109"/>
-      <c r="G44" s="2" t="s">
+      <c r="F44" s="95"/>
+      <c r="G44" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="K44" s="44">
+      <c r="H44" s="106"/>
+      <c r="K44" s="30">
         <v>2</v>
       </c>
-      <c r="L44" s="45"/>
-      <c r="M44" s="46"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="32"/>
     </row>
-    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="112" t="s">
+    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="K45" s="44">
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="K45" s="30">
         <v>3</v>
       </c>
-      <c r="L45" s="45"/>
-      <c r="M45" s="46"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="32"/>
     </row>
-    <row r="46" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="112"/>
-      <c r="D46" s="108" t="s">
+    <row r="46" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="104"/>
+      <c r="D46" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="110" t="s">
+      <c r="E46" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="109"/>
-      <c r="G46" s="2" t="s">
+      <c r="F46" s="95"/>
+      <c r="G46" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="K46" s="44">
+      <c r="H46" s="106"/>
+      <c r="K46" s="30">
         <v>4</v>
       </c>
-      <c r="L46" s="45"/>
-      <c r="M46" s="46"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
     </row>
-    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K47" s="44">
+    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="30">
         <v>5</v>
       </c>
-      <c r="L47" s="45"/>
-      <c r="M47" s="46"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="32"/>
     </row>
-    <row r="48" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K48" s="44">
+    <row r="48" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K48" s="30">
         <v>8</v>
       </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="46"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="32"/>
     </row>
-    <row r="49" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K49" s="44">
+    <row r="49" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="30">
         <v>10</v>
       </c>
-      <c r="L49" s="45"/>
-      <c r="M49" s="46"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="32"/>
     </row>
-    <row r="50" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K50" s="44">
+    <row r="50" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="30">
         <v>20</v>
       </c>
-      <c r="L50" s="45"/>
-      <c r="M50" s="46"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="32"/>
     </row>
-    <row r="51" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K51" s="57">
+    <row r="51" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="43">
         <v>50</v>
       </c>
-      <c r="L51" s="58"/>
-      <c r="M51" s="59"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="45"/>
     </row>
-    <row r="52" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="11:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:H43"/>
@@ -5656,20 +5718,11 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D39:H39"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:H41"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
